--- a/data/BTS/TRPT/CRTM_historical - Annual.xlsx
+++ b/data/BTS/TRPT/CRTM_historical - Annual.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRTM" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,32 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Atlantic</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -75,6 +49,27 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -392,7 +387,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1">
       <c r="C1" s="1" t="n">
         <v>1991</v>
       </c>
@@ -484,12 +479,16 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>8859.712</v>
@@ -582,10 +581,12 @@
         <v>18745.922</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Atlantic</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>2456.154</v>
@@ -678,10 +679,12 @@
         <v>6630.503</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>638.7</v>
@@ -774,10 +777,12 @@
         <v>1251.849</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Pacific</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>3501.435</v>
@@ -870,10 +875,12 @@
         <v>10493.756</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>693.704</v>
@@ -966,12 +973,16 @@
         <v>39474.292</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>16149.705</v>

--- a/data/BTS/TRPT/CRTM_historical - Annual.xlsx
+++ b/data/BTS/TRPT/CRTM_historical - Annual.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,9 @@
       <c r="AF1" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -579,6 +582,9 @@
       </c>
       <c r="AF2" t="n">
         <v>18745.922</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>20150.444</v>
       </c>
     </row>
     <row r="3">
@@ -676,7 +682,10 @@
         <v>7504.644</v>
       </c>
       <c r="AF3" t="n">
-        <v>6630.503</v>
+        <v>6629.1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7970.652</v>
       </c>
     </row>
     <row r="4">
@@ -776,6 +785,9 @@
       <c r="AF4" t="n">
         <v>1251.849</v>
       </c>
+      <c r="AG4" t="n">
+        <v>1704.96</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -872,7 +884,10 @@
         <v>10344.844</v>
       </c>
       <c r="AF5" t="n">
-        <v>10493.756</v>
+        <v>10495.16</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11392.371</v>
       </c>
     </row>
     <row r="6">
@@ -972,6 +987,9 @@
       <c r="AF6" t="n">
         <v>39474.292</v>
       </c>
+      <c r="AG6" t="n">
+        <v>48539.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1073,6 +1091,9 @@
       </c>
       <c r="AF7" t="n">
         <v>76596.323</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>89757.826</v>
       </c>
     </row>
   </sheetData>
